--- a/Prueba de escritorio2.xlsx
+++ b/Prueba de escritorio2.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4776" windowHeight="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="4776" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Polaridad manual (completo)" sheetId="1" r:id="rId1"/>
     <sheet name="Polaridad manual (titulo)" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="87">
   <si>
     <t>Ecopetrol</t>
   </si>
@@ -1218,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1774,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2299,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X74"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -7443,8 +7442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11546,21 +11545,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="D52:F52"/>
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="M52:O52"/>
     <mergeCell ref="P52:R52"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F22">
     <cfRule type="cellIs" priority="41" operator="equal">
@@ -11745,180 +11744,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>